--- a/_build/html/_static/assets/GC/GC6-08-2022.xlsx
+++ b/_build/html/_static/assets/GC/GC6-08-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Accademia\PhD\_static\assets\GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3038667B-D3F3-427D-81DB-321CD04AA5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD862CAD-2B84-4867-83BC-3EF38EB7A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11040" activeTab="1" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11040" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Gant Chart" sheetId="3" r:id="rId1"/>
@@ -1393,6 +1393,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1410,9 +1413,6 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,8 +1734,8 @@
   </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,55 +1782,55 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="54">
         <v>44835</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54">
         <v>44866</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="53">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="54">
         <v>44896</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57">
         <v>44927</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="54">
         <v>44958</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56">
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="57">
         <v>44986</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="53">
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="54">
         <v>45017</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="53">
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="54">
         <v>45047</v>
       </c>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -2318,7 +2318,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="10"/>
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
@@ -2469,7 +2469,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2735,7 +2735,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -3010,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E363679-E1C4-4AEC-AE73-F718ED5B97DB}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -3188,7 +3188,7 @@
       <c r="A12" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="46"/>

--- a/_build/html/_static/assets/GC/GC6-08-2022.xlsx
+++ b/_build/html/_static/assets/GC/GC6-08-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Accademia\PhD\_static\assets\GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD862CAD-2B84-4867-83BC-3EF38EB7A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7271363-FB34-42AB-898F-F54BFE493E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11040" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11040" activeTab="1" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Gant Chart" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Chapter 1: Introducrion</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1737,7 @@
   </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -3010,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E363679-E1C4-4AEC-AE73-F718ED5B97DB}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3093,9 @@
       <c r="C6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="44"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
@@ -3109,8 +3114,8 @@
       <c r="C7" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>56</v>
+      <c r="D7" t="s">
+        <v>76</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="30"/>
@@ -3130,7 +3135,9 @@
       <c r="C8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="44"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>

--- a/_build/html/_static/assets/GC/GC6-08-2022.xlsx
+++ b/_build/html/_static/assets/GC/GC6-08-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Accademia\PhD\_static\assets\GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7271363-FB34-42AB-898F-F54BFE493E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FBC27C-98CB-4E63-9FEA-0B5F2C7E3BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11040" activeTab="1" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Gant Chart" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Chapter 1: Introducrion</t>
   </si>
@@ -850,15 +850,6 @@
     <t>Chapter 5: XP-1_2 - ASW + C2H6</t>
   </si>
   <si>
-    <t>Chapter 6: Novel expt for particle production</t>
-  </si>
-  <si>
-    <t>Chapter 7: Web-site ?</t>
-  </si>
-  <si>
-    <t>Chapter 8: Conclusion and Futur work</t>
-  </si>
-  <si>
     <t>Moving House</t>
   </si>
   <si>
@@ -887,13 +878,25 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Chapter 6: Proof of concept</t>
+  </si>
+  <si>
+    <t>Chapter 7: 2nd version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 8: Web-site </t>
+  </si>
+  <si>
+    <t>Chapter 9: Conclusion and Futur work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,8 +964,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1021,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1292,11 +1307,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1308,9 +1324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1412,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1418,7 +1435,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1735,10 +1753,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,61 +1803,61 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="55">
         <v>44835</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55">
         <v>44866</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="54">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="55">
         <v>44896</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57">
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58">
         <v>44927</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="54">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="55">
         <v>44958</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57">
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58">
         <v>44986</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="54">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="55">
         <v>45017</v>
       </c>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="54">
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="55">
         <v>45047</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1851,16 +1869,16 @@
       <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
@@ -1869,7 +1887,7 @@
       <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -1934,22 +1952,22 @@
       <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -1972,7 +1990,7 @@
       <c r="AH5" s="10"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
@@ -1981,12 +1999,12 @@
       <c r="E6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -2009,12 +2027,13 @@
       <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
@@ -2023,47 +2042,46 @@
       <c r="K7" s="10"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="18"/>
       <c r="K8" s="10"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="N8" s="54"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
@@ -2083,7 +2101,7 @@
       <c r="AH8" s="9"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="9"/>
@@ -2092,74 +2110,74 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="9"/>
@@ -2174,30 +2192,30 @@
       <c r="K11" s="10"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9"/>
@@ -2212,36 +2230,36 @@
       <c r="K12" s="10"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
@@ -2250,106 +2268,105 @@
       <c r="K13" s="10"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="25"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="9"/>
@@ -2364,14 +2381,14 @@
       <c r="K16" s="10"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="10"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -2387,13 +2404,13 @@
       <c r="AH16" s="9"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="9"/>
@@ -2401,8 +2418,8 @@
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="24"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="9"/>
@@ -2424,28 +2441,28 @@
       <c r="AH17" s="9"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="10"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="9"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="10"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -2462,36 +2479,36 @@
       <c r="AH18" s="9"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="25"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="24"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="10"/>
@@ -2514,66 +2531,66 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -2583,35 +2600,35 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -2628,28 +2645,28 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -2666,28 +2683,28 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2704,108 +2721,108 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2818,35 +2835,35 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>12</v>
+      <c r="A29" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="9"/>
@@ -2856,35 +2873,35 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>11</v>
+      <c r="A30" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="9"/>
@@ -2892,34 +2909,34 @@
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>13</v>
+      <c r="A31" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2930,34 +2947,34 @@
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-    </row>
-    <row r="32" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>14</v>
+      <c r="M31" s="23"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2970,28 +2987,66 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3013,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E363679-E1C4-4AEC-AE73-F718ED5B97DB}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3026,395 +3081,395 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="B12" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -3527,526 +3582,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>

--- a/_build/html/_static/assets/GC/GC6-08-2022.xlsx
+++ b/_build/html/_static/assets/GC/GC6-08-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdegu\Bureau\gittest\nb-phd\_static\assets\GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A23B6FC-8C9B-4800-A17C-988A3107176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D0568-7BDA-4781-BE30-7494C2A9E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Gant Chart" sheetId="3" r:id="rId1"/>
@@ -427,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,12 +501,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkUp">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGray">
         <fgColor auto="1"/>
         <bgColor theme="7"/>
@@ -874,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -973,14 +967,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,8 +1321,8 @@
   </sheetPr>
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,82 +1369,82 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="63">
         <v>44927</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="64">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="63">
         <v>44958</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="64">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="63">
         <v>44986</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="68">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="67">
         <v>45017</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="64">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="63">
         <v>45047</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="67">
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="66">
         <v>45078</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="64">
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="63">
         <v>45108</v>
       </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="64">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="63">
         <v>45139</v>
       </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="64">
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="63">
         <v>45170</v>
       </c>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="67">
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="66">
         <v>45200</v>
       </c>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="64">
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="63">
         <v>45231</v>
       </c>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="64">
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="63">
         <v>45261</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="66"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="65"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1586,7 +1579,7 @@
       <c r="AR4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AS4" s="57" t="s">
+      <c r="AS4" s="56" t="s">
         <v>79</v>
       </c>
       <c r="AT4" s="42" t="s">
@@ -1661,8 +1654,8 @@
       <c r="AP5" s="8"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
-      <c r="AS5" s="58"/>
-      <c r="AT5" s="55"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="54"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
@@ -1718,8 +1711,8 @@
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="55"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="54"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8"/>
       <c r="AW6" s="8"/>
@@ -1775,8 +1768,8 @@
       <c r="AP7" s="8"/>
       <c r="AQ7" s="8"/>
       <c r="AR7" s="8"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="55"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="54"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8"/>
       <c r="AW7" s="8"/>
@@ -1832,8 +1825,8 @@
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
       <c r="AR8" s="8"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="55"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="54"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8"/>
       <c r="AW8" s="8"/>
@@ -1889,8 +1882,8 @@
       <c r="AP9" s="8"/>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="55"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="54"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
@@ -1908,11 +1901,11 @@
       <c r="E10" s="49"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="49"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="50"/>
       <c r="N10" s="50"/>
       <c r="O10" s="17"/>
@@ -1945,8 +1938,8 @@
       <c r="AP10" s="17"/>
       <c r="AQ10" s="17"/>
       <c r="AR10" s="17"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="56"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="55"/>
       <c r="AU10" s="17"/>
       <c r="AV10" s="17"/>
       <c r="AW10" s="17"/>
@@ -1963,13 +1956,13 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
       <c r="O11" s="8"/>
@@ -2002,8 +1995,8 @@
       <c r="AP11" s="8"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="55"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="54"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8"/>
       <c r="AW11" s="8"/>
@@ -2020,13 +2013,13 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
       <c r="O12" s="8"/>
@@ -2059,8 +2052,8 @@
       <c r="AP12" s="8"/>
       <c r="AQ12" s="8"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="55"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="54"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8"/>
       <c r="AW12" s="8"/>
@@ -2116,8 +2109,8 @@
       <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="56"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="55"/>
       <c r="AU13" s="17"/>
       <c r="AV13" s="17"/>
       <c r="AW13" s="17"/>
@@ -2173,8 +2166,8 @@
       <c r="AP14" s="17"/>
       <c r="AQ14" s="17"/>
       <c r="AR14" s="17"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="56"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="55"/>
       <c r="AU14" s="17"/>
       <c r="AV14" s="17"/>
       <c r="AW14" s="17"/>
@@ -2230,8 +2223,8 @@
       <c r="AP15" s="17"/>
       <c r="AQ15" s="17"/>
       <c r="AR15" s="17"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="56"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="55"/>
       <c r="AU15" s="17"/>
       <c r="AV15" s="17"/>
       <c r="AW15" s="17"/>
@@ -2287,8 +2280,8 @@
       <c r="AP16" s="17"/>
       <c r="AQ16" s="17"/>
       <c r="AR16" s="17"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="56"/>
+      <c r="AS16" s="59"/>
+      <c r="AT16" s="55"/>
       <c r="AU16" s="17"/>
       <c r="AV16" s="17"/>
       <c r="AW16" s="17"/>
@@ -2343,8 +2336,8 @@
       <c r="AP17" s="17"/>
       <c r="AQ17" s="17"/>
       <c r="AR17" s="17"/>
-      <c r="AS17" s="60"/>
-      <c r="AT17" s="56"/>
+      <c r="AS17" s="59"/>
+      <c r="AT17" s="55"/>
       <c r="AU17" s="17"/>
       <c r="AV17" s="17"/>
       <c r="AW17" s="17"/>
@@ -2400,8 +2393,8 @@
       <c r="AP18" s="17"/>
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="56"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="55"/>
       <c r="AU18" s="17"/>
       <c r="AV18" s="17"/>
       <c r="AW18" s="17"/>
@@ -2457,8 +2450,8 @@
       <c r="AP19" s="8"/>
       <c r="AQ19" s="17"/>
       <c r="AR19" s="17"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="56"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="55"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="17"/>
       <c r="AW19" s="17"/>
@@ -2514,8 +2507,8 @@
       <c r="AP20" s="8"/>
       <c r="AQ20" s="8"/>
       <c r="AR20" s="8"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="55"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="54"/>
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
       <c r="AW20" s="8"/>
@@ -2570,8 +2563,8 @@
       <c r="AP21" s="8"/>
       <c r="AQ21" s="8"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="55"/>
+      <c r="AS21" s="58"/>
+      <c r="AT21" s="54"/>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
       <c r="AW21" s="8"/>
@@ -2627,8 +2620,8 @@
       <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="55"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="54"/>
       <c r="AU22" s="8"/>
       <c r="AV22" s="8"/>
       <c r="AW22" s="8"/>
@@ -2684,8 +2677,8 @@
       <c r="AP23" s="8"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="8"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="55"/>
+      <c r="AS23" s="58"/>
+      <c r="AT23" s="54"/>
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
       <c r="AW23" s="8"/>
@@ -2741,8 +2734,8 @@
       <c r="AP24" s="17"/>
       <c r="AQ24" s="17"/>
       <c r="AR24" s="17"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="56"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="55"/>
       <c r="AU24" s="17"/>
       <c r="AV24" s="17"/>
       <c r="AW24" s="17"/>
@@ -2798,8 +2791,8 @@
       <c r="AP25" s="17"/>
       <c r="AQ25" s="17"/>
       <c r="AR25" s="17"/>
-      <c r="AS25" s="60"/>
-      <c r="AT25" s="56"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="55"/>
       <c r="AU25" s="17"/>
       <c r="AV25" s="17"/>
       <c r="AW25" s="17"/>
@@ -2855,8 +2848,8 @@
       <c r="AP26" s="17"/>
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
-      <c r="AS26" s="60"/>
-      <c r="AT26" s="56"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="55"/>
       <c r="AU26" s="17"/>
       <c r="AV26" s="17"/>
       <c r="AW26" s="17"/>
@@ -2912,8 +2905,8 @@
       <c r="AP27" s="17"/>
       <c r="AQ27" s="17"/>
       <c r="AR27" s="8"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="55"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="54"/>
       <c r="AU27" s="17"/>
       <c r="AV27" s="17"/>
       <c r="AW27" s="17"/>
@@ -2969,8 +2962,8 @@
       <c r="AP28" s="17"/>
       <c r="AQ28" s="17"/>
       <c r="AR28" s="8"/>
-      <c r="AS28" s="60"/>
-      <c r="AT28" s="55"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="54"/>
       <c r="AU28" s="17"/>
       <c r="AV28" s="17"/>
       <c r="AW28" s="17"/>
@@ -2987,13 +2980,13 @@
       <c r="C29" s="8"/>
       <c r="D29" s="17"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="51"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="51"/>
       <c r="N29" s="50"/>
       <c r="O29" s="17"/>
@@ -3026,8 +3019,8 @@
       <c r="AP29" s="17"/>
       <c r="AQ29" s="17"/>
       <c r="AR29" s="8"/>
-      <c r="AS29" s="60"/>
-      <c r="AT29" s="55"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="54"/>
       <c r="AU29" s="8"/>
       <c r="AV29" s="8"/>
       <c r="AW29" s="17"/>
@@ -3040,13 +3033,13 @@
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="51"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="51"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -3074,17 +3067,17 @@
       <c r="AG30" s="8"/>
       <c r="AH30" s="17"/>
       <c r="AI30" s="17"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="8"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="51"/>
       <c r="AQ30" s="51"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="61"/>
-      <c r="AT30" s="55"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="54"/>
       <c r="AU30" s="8"/>
       <c r="AV30" s="8"/>
       <c r="AW30" s="17"/>
@@ -3131,17 +3124,17 @@
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
       <c r="AP31" s="51"/>
       <c r="AQ31" s="51"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="61"/>
-      <c r="AT31" s="55"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="60"/>
+      <c r="AT31" s="54"/>
       <c r="AU31" s="8"/>
       <c r="AV31" s="17"/>
       <c r="AW31" s="17"/>
@@ -3176,10 +3169,10 @@
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
       <c r="AB32" s="51"/>
       <c r="AC32" s="51"/>
       <c r="AD32" s="51"/>
@@ -3194,11 +3187,11 @@
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="61"/>
-      <c r="AT32" s="56"/>
+      <c r="AP32" s="53"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="53"/>
+      <c r="AS32" s="60"/>
+      <c r="AT32" s="55"/>
       <c r="AU32" s="17"/>
       <c r="AV32" s="17"/>
       <c r="AW32" s="17"/>
@@ -3237,10 +3230,10 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
       <c r="AF33" s="51"/>
       <c r="AG33" s="51"/>
       <c r="AH33" s="51"/>
@@ -3253,9 +3246,9 @@
       <c r="AO33" s="17"/>
       <c r="AP33" s="17"/>
       <c r="AQ33" s="17"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="56"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="60"/>
+      <c r="AT33" s="55"/>
       <c r="AU33" s="17"/>
       <c r="AV33" s="17"/>
       <c r="AW33" s="17"/>
@@ -3298,10 +3291,10 @@
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
-      <c r="AF34" s="54"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
       <c r="AJ34" s="51"/>
       <c r="AK34" s="51"/>
       <c r="AL34" s="51"/>
@@ -3310,9 +3303,9 @@
       <c r="AO34" s="17"/>
       <c r="AP34" s="17"/>
       <c r="AQ34" s="17"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="61"/>
-      <c r="AT34" s="56"/>
+      <c r="AR34" s="53"/>
+      <c r="AS34" s="60"/>
+      <c r="AT34" s="55"/>
       <c r="AU34" s="17"/>
       <c r="AV34" s="17"/>
       <c r="AW34" s="17"/>
@@ -3338,15 +3331,15 @@
       <c r="L35" s="17"/>
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
       <c r="S35" s="51"/>
       <c r="T35" s="51"/>
       <c r="U35" s="51"/>
       <c r="V35" s="51"/>
-      <c r="W35" s="54"/>
+      <c r="W35" s="53"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
@@ -3367,9 +3360,9 @@
       <c r="AO35" s="17"/>
       <c r="AP35" s="17"/>
       <c r="AQ35" s="17"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="56"/>
+      <c r="AR35" s="53"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="55"/>
       <c r="AU35" s="17"/>
       <c r="AV35" s="17"/>
       <c r="AW35" s="17"/>
@@ -3395,15 +3388,15 @@
       <c r="L36" s="17"/>
       <c r="M36" s="50"/>
       <c r="N36" s="50"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
       <c r="S36" s="51"/>
       <c r="T36" s="51"/>
       <c r="U36" s="51"/>
       <c r="V36" s="51"/>
-      <c r="W36" s="54"/>
+      <c r="W36" s="53"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
@@ -3424,9 +3417,9 @@
       <c r="AO36" s="17"/>
       <c r="AP36" s="17"/>
       <c r="AQ36" s="17"/>
-      <c r="AR36" s="54"/>
-      <c r="AS36" s="61"/>
-      <c r="AT36" s="56"/>
+      <c r="AR36" s="53"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="55"/>
       <c r="AU36" s="17"/>
       <c r="AV36" s="17"/>
       <c r="AW36" s="17"/>
@@ -3476,14 +3469,14 @@
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
       <c r="AL37" s="17"/>
-      <c r="AM37" s="54"/>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
       <c r="AP37" s="51"/>
       <c r="AQ37" s="51"/>
-      <c r="AR37" s="54"/>
-      <c r="AS37" s="61"/>
-      <c r="AT37" s="55"/>
+      <c r="AR37" s="53"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="54"/>
       <c r="AU37" s="8"/>
       <c r="AV37" s="17"/>
       <c r="AW37" s="17"/>
@@ -3539,8 +3532,8 @@
       <c r="AP38" s="17"/>
       <c r="AQ38" s="17"/>
       <c r="AR38" s="17"/>
-      <c r="AS38" s="60"/>
-      <c r="AT38" s="56"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="55"/>
       <c r="AU38" s="17"/>
       <c r="AV38" s="17"/>
       <c r="AW38" s="17"/>
@@ -3596,8 +3589,8 @@
       <c r="AP39" s="17"/>
       <c r="AQ39" s="17"/>
       <c r="AR39" s="17"/>
-      <c r="AS39" s="60"/>
-      <c r="AT39" s="56"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="55"/>
       <c r="AU39" s="17"/>
       <c r="AV39" s="17"/>
       <c r="AW39" s="17"/>
@@ -3653,8 +3646,8 @@
       <c r="AP40" s="17"/>
       <c r="AQ40" s="17"/>
       <c r="AR40" s="17"/>
-      <c r="AS40" s="60"/>
-      <c r="AT40" s="56"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="55"/>
       <c r="AU40" s="17"/>
       <c r="AV40" s="17"/>
       <c r="AW40" s="17"/>
@@ -3710,8 +3703,8 @@
       <c r="AP41" s="17"/>
       <c r="AQ41" s="17"/>
       <c r="AR41" s="17"/>
-      <c r="AS41" s="60"/>
-      <c r="AT41" s="56"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="55"/>
       <c r="AU41" s="17"/>
       <c r="AV41" s="17"/>
       <c r="AW41" s="17"/>
@@ -3764,8 +3757,8 @@
       <c r="AP42" s="17"/>
       <c r="AQ42" s="17"/>
       <c r="AR42" s="17"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="56"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="55"/>
       <c r="AU42" s="17"/>
       <c r="AV42" s="17"/>
       <c r="AW42" s="17"/>
@@ -3790,7 +3783,7 @@
       <c r="N43" t="s">
         <v>95</v>
       </c>
-      <c r="AS43" s="63" t="s">
+      <c r="AS43" s="62" t="s">
         <v>96</v>
       </c>
     </row>

--- a/_build/html/_static/assets/GC/GC6-08-2022.xlsx
+++ b/_build/html/_static/assets/GC/GC6-08-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdegu\Bureau\gittest\nb-phd\_static\assets\GC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D0568-7BDA-4781-BE30-7494C2A9E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E903A6-F2F5-4DDF-96D7-94636E4D5010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{7BB45F5F-A749-4075-A8E8-AB4E8B490909}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:BA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O35" sqref="O35:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
